--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\University Masters Program\Course Information\Fall2020\ENSF619\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\University Masters Program\Course Information\Fall2020\ENSF619\Project\Github\ENSF_619_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\University Masters Program\Course Information\Fall2020\ENSF619\Project\Github\ENSF_619_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\University Masters Program\Course Information\Fall2020\ENSF619\Project\GithubPrimary\ENSF_619_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Coding Agenda" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>TodoList</t>
   </si>
@@ -153,6 +154,27 @@
   </si>
   <si>
     <t>Issue Movie News</t>
+  </si>
+  <si>
+    <t>Views Package</t>
+  </si>
+  <si>
+    <t>UserModel Package</t>
+  </si>
+  <si>
+    <t>Controller Package</t>
+  </si>
+  <si>
+    <t>TheatreModel Package</t>
+  </si>
+  <si>
+    <t>ViewController Package</t>
+  </si>
+  <si>
+    <t>Mike is doing all GUI stuff</t>
+  </si>
+  <si>
+    <t>This should be mostly just getting SQL working Financial</t>
   </si>
 </sst>
 </file>
@@ -200,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -223,17 +245,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +563,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
